--- a/public/build/assets/branch.xlsx
+++ b/public/build/assets/branch.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>branch_code</t>
   </si>
@@ -22,34 +22,16 @@
     <t>address</t>
   </si>
   <si>
-    <t>ip</t>
+    <t>ip_address</t>
   </si>
   <si>
     <t>port</t>
-  </si>
-  <si>
-    <t>isp_name</t>
-  </si>
-  <si>
-    <t>agent_name</t>
-  </si>
-  <si>
-    <t>operator_name</t>
-  </si>
-  <si>
-    <t>customer_name</t>
   </si>
   <si>
     <t>palwla branch</t>
   </si>
   <si>
     <t>Adresh colony palwal</t>
-  </si>
-  <si>
-    <t>kuldeep pawar</t>
-  </si>
-  <si>
-    <t>kuldeep</t>
   </si>
 </sst>
 </file>
@@ -333,28 +315,20 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1">
         <v>33.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>56.0</v>
@@ -362,18 +336,7 @@
       <c r="E2" s="2">
         <v>465.0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1"/>
